--- a/data/pca/factorExposure/factorExposure_2012-02-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01479725176574797</v>
+        <v>0.0150604273526475</v>
       </c>
       <c r="C2">
-        <v>0.02968434625477166</v>
+        <v>-0.02534581977223749</v>
       </c>
       <c r="D2">
-        <v>-0.00656602643076656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006219734385330808</v>
+      </c>
+      <c r="E2">
+        <v>-0.009788701785253972</v>
+      </c>
+      <c r="F2">
+        <v>-0.01137019235125565</v>
+      </c>
+      <c r="G2">
+        <v>-0.01651217071539138</v>
+      </c>
+      <c r="H2">
+        <v>0.04613992522264935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07225893147545538</v>
+        <v>0.08672531936095215</v>
       </c>
       <c r="C4">
-        <v>0.05027241552940265</v>
+        <v>-0.03753546232030625</v>
       </c>
       <c r="D4">
-        <v>-0.08289859159960458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06471411524571252</v>
+      </c>
+      <c r="E4">
+        <v>-0.01497958992764439</v>
+      </c>
+      <c r="F4">
+        <v>-0.03292138059580303</v>
+      </c>
+      <c r="G4">
+        <v>-0.004546069387128711</v>
+      </c>
+      <c r="H4">
+        <v>-0.04020603236068772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1085651397311879</v>
+        <v>0.1194490602133502</v>
       </c>
       <c r="C6">
-        <v>0.05495534404529776</v>
+        <v>-0.0344786553675338</v>
       </c>
       <c r="D6">
-        <v>0.0005460256822566344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01459673811495097</v>
+      </c>
+      <c r="E6">
+        <v>0.01018185787366469</v>
+      </c>
+      <c r="F6">
+        <v>-0.05293197584706362</v>
+      </c>
+      <c r="G6">
+        <v>-0.03345855993235096</v>
+      </c>
+      <c r="H6">
+        <v>0.1208416188941097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04955217397310694</v>
+        <v>0.0636224360540579</v>
       </c>
       <c r="C7">
-        <v>0.02806979974134297</v>
+        <v>-0.02001056594635021</v>
       </c>
       <c r="D7">
-        <v>-0.04663225584079042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04591742270100399</v>
+      </c>
+      <c r="E7">
+        <v>-0.03619353107924143</v>
+      </c>
+      <c r="F7">
+        <v>-0.0353627701448495</v>
+      </c>
+      <c r="G7">
+        <v>0.03727804667666058</v>
+      </c>
+      <c r="H7">
+        <v>-0.00354842293793176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0384280522211362</v>
+        <v>0.04130749694233542</v>
       </c>
       <c r="C8">
-        <v>0.01392577025814258</v>
+        <v>-0.009564789528402902</v>
       </c>
       <c r="D8">
-        <v>-0.05994274353332011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02503403145896098</v>
+      </c>
+      <c r="E8">
+        <v>-0.03528924844371052</v>
+      </c>
+      <c r="F8">
+        <v>-0.05125985609670595</v>
+      </c>
+      <c r="G8">
+        <v>-0.05539027755290028</v>
+      </c>
+      <c r="H8">
+        <v>0.01223326984975111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06663179839196404</v>
+        <v>0.07824920818698712</v>
       </c>
       <c r="C9">
-        <v>0.04151541039597539</v>
+        <v>-0.02859191628428455</v>
       </c>
       <c r="D9">
-        <v>-0.07245165130861679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06359415354349662</v>
+      </c>
+      <c r="E9">
+        <v>-0.0398346367714883</v>
+      </c>
+      <c r="F9">
+        <v>-0.03051037789374967</v>
+      </c>
+      <c r="G9">
+        <v>-0.007461048008982897</v>
+      </c>
+      <c r="H9">
+        <v>-0.04294410014269096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02811126443041592</v>
+        <v>0.03326919542057042</v>
       </c>
       <c r="C10">
-        <v>0.03293255368785503</v>
+        <v>-0.04373183797487533</v>
       </c>
       <c r="D10">
-        <v>0.1774729630264071</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1738450644104789</v>
+      </c>
+      <c r="E10">
+        <v>-0.04503307805794195</v>
+      </c>
+      <c r="F10">
+        <v>-0.04554088980823871</v>
+      </c>
+      <c r="G10">
+        <v>0.02894124825177219</v>
+      </c>
+      <c r="H10">
+        <v>0.04816099456547454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.071365785964576</v>
+        <v>0.07659526987805099</v>
       </c>
       <c r="C11">
-        <v>0.04632704559750832</v>
+        <v>-0.02763163288574707</v>
       </c>
       <c r="D11">
-        <v>-0.05905503661332288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06221584271728864</v>
+      </c>
+      <c r="E11">
+        <v>0.0003347602680301603</v>
+      </c>
+      <c r="F11">
+        <v>-0.02764666547327236</v>
+      </c>
+      <c r="G11">
+        <v>0.003099554136546079</v>
+      </c>
+      <c r="H11">
+        <v>-0.08073397114881373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05855302777744596</v>
+        <v>0.06775669594263874</v>
       </c>
       <c r="C12">
-        <v>0.05234562664209839</v>
+        <v>-0.03738096816776756</v>
       </c>
       <c r="D12">
-        <v>-0.04331262121271733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04845031474461344</v>
+      </c>
+      <c r="E12">
+        <v>-0.01429512629492058</v>
+      </c>
+      <c r="F12">
+        <v>-0.01926558879048496</v>
+      </c>
+      <c r="G12">
+        <v>-0.002638090576162146</v>
+      </c>
+      <c r="H12">
+        <v>-0.038177253997214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06063481909803031</v>
+        <v>0.06492733136470934</v>
       </c>
       <c r="C13">
-        <v>0.0400354239127171</v>
+        <v>-0.02552605526085428</v>
       </c>
       <c r="D13">
-        <v>-0.06044044553334738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04281062417508223</v>
+      </c>
+      <c r="E13">
+        <v>-0.01682747025062687</v>
+      </c>
+      <c r="F13">
+        <v>-0.007779369028117852</v>
+      </c>
+      <c r="G13">
+        <v>0.008131906360008186</v>
+      </c>
+      <c r="H13">
+        <v>-0.0398382242317052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03312594310653166</v>
+        <v>0.04105127107029376</v>
       </c>
       <c r="C14">
-        <v>0.03104862293855618</v>
+        <v>-0.02713017605752113</v>
       </c>
       <c r="D14">
-        <v>-0.001289981886904524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.007456150778071569</v>
+      </c>
+      <c r="E14">
+        <v>-0.03805163460407336</v>
+      </c>
+      <c r="F14">
+        <v>-0.01160931246608001</v>
+      </c>
+      <c r="G14">
+        <v>-0.004454340356701591</v>
+      </c>
+      <c r="H14">
+        <v>-0.05482178195075157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04015960990623219</v>
+        <v>0.04009904014155137</v>
       </c>
       <c r="C15">
-        <v>0.01072175664518858</v>
+        <v>-0.003645108594792959</v>
       </c>
       <c r="D15">
-        <v>-0.01709791054478667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004100024790355541</v>
+      </c>
+      <c r="E15">
+        <v>-0.03608409936801873</v>
+      </c>
+      <c r="F15">
+        <v>0.006035684586741311</v>
+      </c>
+      <c r="G15">
+        <v>-0.02499429992227898</v>
+      </c>
+      <c r="H15">
+        <v>-0.03812977903822307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06067951936387942</v>
+        <v>0.07053152824445338</v>
       </c>
       <c r="C16">
-        <v>0.04194085252197507</v>
+        <v>-0.02795362003268701</v>
       </c>
       <c r="D16">
-        <v>-0.0469498587838981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.062193913659824</v>
+      </c>
+      <c r="E16">
+        <v>-0.008144191454750649</v>
+      </c>
+      <c r="F16">
+        <v>-0.0245106084534623</v>
+      </c>
+      <c r="G16">
+        <v>0.004599699435033871</v>
+      </c>
+      <c r="H16">
+        <v>-0.04999505929983834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06305196505412357</v>
+        <v>0.06404137050076893</v>
       </c>
       <c r="C20">
-        <v>0.02981090263774822</v>
+        <v>-0.01363854838858174</v>
       </c>
       <c r="D20">
-        <v>-0.04940711178283427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03751804552375981</v>
+      </c>
+      <c r="E20">
+        <v>-0.03159834164752621</v>
+      </c>
+      <c r="F20">
+        <v>-0.01969676962179931</v>
+      </c>
+      <c r="G20">
+        <v>-0.01283380683416003</v>
+      </c>
+      <c r="H20">
+        <v>-0.03914900679641477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02630892459889333</v>
+        <v>0.02645274411157074</v>
       </c>
       <c r="C21">
-        <v>-0.002712320801676463</v>
+        <v>0.009258980254336068</v>
       </c>
       <c r="D21">
-        <v>-0.024880334117873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0247206862602859</v>
+      </c>
+      <c r="E21">
+        <v>-0.04540164168186347</v>
+      </c>
+      <c r="F21">
+        <v>0.01848731260265753</v>
+      </c>
+      <c r="G21">
+        <v>-0.00608912066465701</v>
+      </c>
+      <c r="H21">
+        <v>0.05185135327170427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07802186929063205</v>
+        <v>0.07291240313773277</v>
       </c>
       <c r="C22">
-        <v>0.06230702998177834</v>
+        <v>-0.04230346905318167</v>
       </c>
       <c r="D22">
-        <v>-0.09593255845240947</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06461650065499004</v>
+      </c>
+      <c r="E22">
+        <v>-0.5666955078661028</v>
+      </c>
+      <c r="F22">
+        <v>0.2325192861884992</v>
+      </c>
+      <c r="G22">
+        <v>0.07577865112175328</v>
+      </c>
+      <c r="H22">
+        <v>0.1484134107042485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07899558274916953</v>
+        <v>0.07365969853726469</v>
       </c>
       <c r="C23">
-        <v>0.06120021766719887</v>
+        <v>-0.0409231148598453</v>
       </c>
       <c r="D23">
-        <v>-0.0975001049063956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06560764005056305</v>
+      </c>
+      <c r="E23">
+        <v>-0.5660149549831668</v>
+      </c>
+      <c r="F23">
+        <v>0.231442446539261</v>
+      </c>
+      <c r="G23">
+        <v>0.0744736111425693</v>
+      </c>
+      <c r="H23">
+        <v>0.1439615649797714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0717997988856741</v>
+        <v>0.08010942658814905</v>
       </c>
       <c r="C24">
-        <v>0.05096434142880808</v>
+        <v>-0.03407605597061274</v>
       </c>
       <c r="D24">
-        <v>-0.06103734587303414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05966179750785859</v>
+      </c>
+      <c r="E24">
+        <v>-0.01771344872005378</v>
+      </c>
+      <c r="F24">
+        <v>-0.0340641127442138</v>
+      </c>
+      <c r="G24">
+        <v>-0.01250755351475409</v>
+      </c>
+      <c r="H24">
+        <v>-0.04961159613768811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07087268457855166</v>
+        <v>0.07787341643551153</v>
       </c>
       <c r="C25">
-        <v>0.05601060436927288</v>
+        <v>-0.03833182604373881</v>
       </c>
       <c r="D25">
-        <v>-0.06641990363570512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05250816757390562</v>
+      </c>
+      <c r="E25">
+        <v>-0.02268007884162242</v>
+      </c>
+      <c r="F25">
+        <v>-0.02316739148180717</v>
+      </c>
+      <c r="G25">
+        <v>-0.01891329725339553</v>
+      </c>
+      <c r="H25">
+        <v>-0.05251046808392693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04545231787452919</v>
+        <v>0.04765478839259673</v>
       </c>
       <c r="C26">
-        <v>0.01016891344120778</v>
+        <v>-0.002434807110846524</v>
       </c>
       <c r="D26">
-        <v>-0.01317313619433847</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01817185364342115</v>
+      </c>
+      <c r="E26">
+        <v>-0.05524748965558692</v>
+      </c>
+      <c r="F26">
+        <v>-0.02265582515855858</v>
+      </c>
+      <c r="G26">
+        <v>0.009471231247178066</v>
+      </c>
+      <c r="H26">
+        <v>-0.05193799701601134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05200231929882138</v>
+        <v>0.06167867404633576</v>
       </c>
       <c r="C28">
-        <v>0.07482377299472459</v>
+        <v>-0.08676646850438753</v>
       </c>
       <c r="D28">
-        <v>0.3162787875946061</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.309706463712236</v>
+      </c>
+      <c r="E28">
+        <v>-0.02593399786561398</v>
+      </c>
+      <c r="F28">
+        <v>-0.05681350466041466</v>
+      </c>
+      <c r="G28">
+        <v>-0.03289202984131568</v>
+      </c>
+      <c r="H28">
+        <v>0.04019802798390974</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0412576723109413</v>
+        <v>0.04900490210772009</v>
       </c>
       <c r="C29">
-        <v>0.03017438857744996</v>
+        <v>-0.02552492320019914</v>
       </c>
       <c r="D29">
-        <v>-0.006597006103889534</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.006321587373124692</v>
+      </c>
+      <c r="E29">
+        <v>-0.06710635000552168</v>
+      </c>
+      <c r="F29">
+        <v>-0.0023509834811179</v>
+      </c>
+      <c r="G29">
+        <v>0.01065671741882919</v>
+      </c>
+      <c r="H29">
+        <v>-0.07181475827064721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1245576069284509</v>
+        <v>0.1309087578352843</v>
       </c>
       <c r="C30">
-        <v>0.09183783759750029</v>
+        <v>-0.06471682980869566</v>
       </c>
       <c r="D30">
-        <v>-0.1109348761671519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06616174319980925</v>
+      </c>
+      <c r="E30">
+        <v>-0.08528493203054449</v>
+      </c>
+      <c r="F30">
+        <v>0.01767651269917558</v>
+      </c>
+      <c r="G30">
+        <v>-0.08193528832232852</v>
+      </c>
+      <c r="H30">
+        <v>0.04415718730157112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04318177036097717</v>
+        <v>0.04893604829263595</v>
       </c>
       <c r="C31">
-        <v>0.02239098755324331</v>
+        <v>-0.01426382488237707</v>
       </c>
       <c r="D31">
-        <v>-0.02544546184129702</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02643705933442488</v>
+      </c>
+      <c r="E31">
+        <v>-0.02712369592998455</v>
+      </c>
+      <c r="F31">
+        <v>-0.009858850292904767</v>
+      </c>
+      <c r="G31">
+        <v>0.02784249675873028</v>
+      </c>
+      <c r="H31">
+        <v>-0.0616477078272606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03836153236243701</v>
+        <v>0.03894404059940487</v>
       </c>
       <c r="C32">
-        <v>0.02361507268492521</v>
+        <v>-0.01709561426092821</v>
       </c>
       <c r="D32">
-        <v>-0.02372013552301178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01280471016265913</v>
+      </c>
+      <c r="E32">
+        <v>-0.05926690141711858</v>
+      </c>
+      <c r="F32">
+        <v>0.02228680928862872</v>
+      </c>
+      <c r="G32">
+        <v>-0.0207774442724928</v>
+      </c>
+      <c r="H32">
+        <v>-0.08141985600199818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08219751047523699</v>
+        <v>0.09556134752692758</v>
       </c>
       <c r="C33">
-        <v>0.04377223992606266</v>
+        <v>-0.02831319702231427</v>
       </c>
       <c r="D33">
-        <v>-0.06451674133810167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04690078745633323</v>
+      </c>
+      <c r="E33">
+        <v>-0.01561843498452292</v>
+      </c>
+      <c r="F33">
+        <v>-0.006860649994146143</v>
+      </c>
+      <c r="G33">
+        <v>0.005599848986254818</v>
+      </c>
+      <c r="H33">
+        <v>-0.05407997247476366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05632697951249646</v>
+        <v>0.06277843195838459</v>
       </c>
       <c r="C34">
-        <v>0.02782314914739438</v>
+        <v>-0.01405570433270474</v>
       </c>
       <c r="D34">
-        <v>-0.05529803802020025</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05296309333756776</v>
+      </c>
+      <c r="E34">
+        <v>-0.009627071263376703</v>
+      </c>
+      <c r="F34">
+        <v>-0.01622259331030497</v>
+      </c>
+      <c r="G34">
+        <v>0.001413767246586624</v>
+      </c>
+      <c r="H34">
+        <v>-0.05424581871911738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03781728631804172</v>
+        <v>0.03999176341635953</v>
       </c>
       <c r="C35">
-        <v>0.007563006912394457</v>
+        <v>-0.00283986733289258</v>
       </c>
       <c r="D35">
-        <v>-0.01035097839158269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.008732464342612937</v>
+      </c>
+      <c r="E35">
+        <v>-0.0203369104144283</v>
+      </c>
+      <c r="F35">
+        <v>0.01717137974770571</v>
+      </c>
+      <c r="G35">
+        <v>0.01112700133932169</v>
+      </c>
+      <c r="H35">
+        <v>-0.01451928063417236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02200344509573358</v>
+        <v>0.0283886412611564</v>
       </c>
       <c r="C36">
-        <v>0.01710634672292588</v>
+        <v>-0.01402628795714604</v>
       </c>
       <c r="D36">
-        <v>-0.02244653085633757</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01542887754353326</v>
+      </c>
+      <c r="E36">
+        <v>-0.04068452131315124</v>
+      </c>
+      <c r="F36">
+        <v>-0.01516709340354275</v>
+      </c>
+      <c r="G36">
+        <v>0.008428445166152841</v>
+      </c>
+      <c r="H36">
+        <v>-0.04237022213841304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04031156529062439</v>
+        <v>0.04457205564040921</v>
       </c>
       <c r="C38">
-        <v>0.005386668734439708</v>
+        <v>-1.658975289534165e-05</v>
       </c>
       <c r="D38">
-        <v>-0.01687433668414065</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01692884456535011</v>
+      </c>
+      <c r="E38">
+        <v>-0.05481748957294191</v>
+      </c>
+      <c r="F38">
+        <v>0.01238762579628753</v>
+      </c>
+      <c r="G38">
+        <v>-0.004369962896558391</v>
+      </c>
+      <c r="H38">
+        <v>-0.03001540727751959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09099024577875291</v>
+        <v>0.1021886334108112</v>
       </c>
       <c r="C39">
-        <v>0.07346985157513113</v>
+        <v>-0.05232600141993684</v>
       </c>
       <c r="D39">
-        <v>-0.056945349323111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05944327222222084</v>
+      </c>
+      <c r="E39">
+        <v>0.001574383057040818</v>
+      </c>
+      <c r="F39">
+        <v>-0.002177847871418585</v>
+      </c>
+      <c r="G39">
+        <v>-0.03630767344748577</v>
+      </c>
+      <c r="H39">
+        <v>-0.04612372636129628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.075252178758205</v>
+        <v>0.07071966060939684</v>
       </c>
       <c r="C40">
-        <v>0.03998271585500379</v>
+        <v>-0.01982566570258215</v>
       </c>
       <c r="D40">
-        <v>-0.001476866458379485</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01175169301133374</v>
+      </c>
+      <c r="E40">
+        <v>-0.01804103730476014</v>
+      </c>
+      <c r="F40">
+        <v>0.05705654500302206</v>
+      </c>
+      <c r="G40">
+        <v>-0.05671428602672032</v>
+      </c>
+      <c r="H40">
+        <v>0.1058503508932273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04113135896797217</v>
+        <v>0.04392999139006349</v>
       </c>
       <c r="C41">
-        <v>0.00520077214815147</v>
+        <v>0.002021258877629513</v>
       </c>
       <c r="D41">
-        <v>-0.03641336570719121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03409052325008221</v>
+      </c>
+      <c r="E41">
+        <v>-0.003281419256025605</v>
+      </c>
+      <c r="F41">
+        <v>0.01423321467456214</v>
+      </c>
+      <c r="G41">
+        <v>-0.00984912798082704</v>
+      </c>
+      <c r="H41">
+        <v>-0.03271013438942934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04835207804935748</v>
+        <v>0.05810893936490041</v>
       </c>
       <c r="C43">
-        <v>0.02542415559415698</v>
+        <v>-0.01799912023528791</v>
       </c>
       <c r="D43">
-        <v>-0.01920625075110358</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02458717968076468</v>
+      </c>
+      <c r="E43">
+        <v>-0.02256384696584856</v>
+      </c>
+      <c r="F43">
+        <v>-0.01280659791487173</v>
+      </c>
+      <c r="G43">
+        <v>0.01622807297944769</v>
+      </c>
+      <c r="H43">
+        <v>-0.05316182645830952</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09196367396338347</v>
+        <v>0.09524543207177982</v>
       </c>
       <c r="C44">
-        <v>0.09295713827584681</v>
+        <v>-0.06788365543114222</v>
       </c>
       <c r="D44">
-        <v>-0.08140895704637191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0570478327052906</v>
+      </c>
+      <c r="E44">
+        <v>-0.08865438520716512</v>
+      </c>
+      <c r="F44">
+        <v>-0.04218347655215392</v>
+      </c>
+      <c r="G44">
+        <v>-0.03016883431271932</v>
+      </c>
+      <c r="H44">
+        <v>-0.01700459854560066</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02467462663465493</v>
+        <v>0.03376425680941533</v>
       </c>
       <c r="C46">
-        <v>0.01316801540393872</v>
+        <v>-0.01117721436854296</v>
       </c>
       <c r="D46">
-        <v>-0.0225467877318551</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03296255576653748</v>
+      </c>
+      <c r="E46">
+        <v>-0.03366783115252759</v>
+      </c>
+      <c r="F46">
+        <v>-0.01285149940570013</v>
+      </c>
+      <c r="G46">
+        <v>0.005720184399422617</v>
+      </c>
+      <c r="H46">
+        <v>-0.03780342105947956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0290280975603697</v>
+        <v>0.03783163714329813</v>
       </c>
       <c r="C47">
-        <v>0.02447036842363757</v>
+        <v>-0.02043936113559934</v>
       </c>
       <c r="D47">
-        <v>-0.01206257770687214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01084670699953071</v>
+      </c>
+      <c r="E47">
+        <v>-0.05353992281185442</v>
+      </c>
+      <c r="F47">
+        <v>-0.005553082199788502</v>
+      </c>
+      <c r="G47">
+        <v>0.04381941436964373</v>
+      </c>
+      <c r="H47">
+        <v>-0.01997755208747784</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03297955270949672</v>
+        <v>0.03808344286396476</v>
       </c>
       <c r="C48">
-        <v>0.018990952023211</v>
+        <v>-0.01178848123141004</v>
       </c>
       <c r="D48">
-        <v>-0.0299299992538151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01863246937791257</v>
+      </c>
+      <c r="E48">
+        <v>-0.04664110115219088</v>
+      </c>
+      <c r="F48">
+        <v>0.0008787386031448288</v>
+      </c>
+      <c r="G48">
+        <v>-0.009880252780378164</v>
+      </c>
+      <c r="H48">
+        <v>-0.03696425326789397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1603308105675176</v>
+        <v>0.1884181398933349</v>
       </c>
       <c r="C49">
-        <v>0.05773409418611228</v>
+        <v>-0.03456613414341325</v>
       </c>
       <c r="D49">
-        <v>0.01235678157430183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02905447697152643</v>
+      </c>
+      <c r="E49">
+        <v>0.1482523915975785</v>
+      </c>
+      <c r="F49">
+        <v>-0.07703351224784813</v>
+      </c>
+      <c r="G49">
+        <v>0.05011862216516771</v>
+      </c>
+      <c r="H49">
+        <v>0.2273433166887662</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03868172634926253</v>
+        <v>0.04580624604653426</v>
       </c>
       <c r="C50">
-        <v>0.02674278981883409</v>
+        <v>-0.0196554949496588</v>
       </c>
       <c r="D50">
-        <v>-0.03798143000690188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03121977342856525</v>
+      </c>
+      <c r="E50">
+        <v>-0.05007550226209734</v>
+      </c>
+      <c r="F50">
+        <v>-0.00941282290550286</v>
+      </c>
+      <c r="G50">
+        <v>0.02397546101113646</v>
+      </c>
+      <c r="H50">
+        <v>-0.05925296634421921</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02657534525231351</v>
+        <v>0.03007044993893657</v>
       </c>
       <c r="C51">
-        <v>0.01077063643107313</v>
+        <v>-0.005342221319285531</v>
       </c>
       <c r="D51">
-        <v>-0.01355056185517908</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0120033333058772</v>
+      </c>
+      <c r="E51">
+        <v>-0.01363955017333188</v>
+      </c>
+      <c r="F51">
+        <v>-0.01802595582879112</v>
+      </c>
+      <c r="G51">
+        <v>0.00144609930009628</v>
+      </c>
+      <c r="H51">
+        <v>0.002277460966044467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1511675570995517</v>
+        <v>0.1623851073918399</v>
       </c>
       <c r="C53">
-        <v>0.07826739196401733</v>
+        <v>-0.05196948242625651</v>
       </c>
       <c r="D53">
-        <v>-0.02159817116895096</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01841637407708763</v>
+      </c>
+      <c r="E53">
+        <v>0.02753398679108449</v>
+      </c>
+      <c r="F53">
+        <v>-0.01989329284619828</v>
+      </c>
+      <c r="G53">
+        <v>0.02718233805638217</v>
+      </c>
+      <c r="H53">
+        <v>-0.1823378291833914</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05559176880883774</v>
+        <v>0.05820799508338995</v>
       </c>
       <c r="C54">
-        <v>0.02588476863845946</v>
+        <v>-0.01469044633076837</v>
       </c>
       <c r="D54">
-        <v>-0.0233858841294778</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01646839374732888</v>
+      </c>
+      <c r="E54">
+        <v>-0.05283820147377975</v>
+      </c>
+      <c r="F54">
+        <v>-0.003440265666151829</v>
+      </c>
+      <c r="G54">
+        <v>-0.01065201620188123</v>
+      </c>
+      <c r="H54">
+        <v>-0.04451806353369435</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09899202947106511</v>
+        <v>0.1034912138665943</v>
       </c>
       <c r="C55">
-        <v>0.05430888418436193</v>
+        <v>-0.03460037195265837</v>
       </c>
       <c r="D55">
-        <v>-0.02591983060557554</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02331058894841029</v>
+      </c>
+      <c r="E55">
+        <v>-0.01919969761606869</v>
+      </c>
+      <c r="F55">
+        <v>-0.01317133792280916</v>
+      </c>
+      <c r="G55">
+        <v>0.02017780010973207</v>
+      </c>
+      <c r="H55">
+        <v>-0.1518204179446278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1479674820968918</v>
+        <v>0.1614308467544581</v>
       </c>
       <c r="C56">
-        <v>0.09198513610885699</v>
+        <v>-0.06421992520765402</v>
       </c>
       <c r="D56">
-        <v>-0.02279285156496576</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02096063236177726</v>
+      </c>
+      <c r="E56">
+        <v>0.02697415330822207</v>
+      </c>
+      <c r="F56">
+        <v>-0.03534307748958683</v>
+      </c>
+      <c r="G56">
+        <v>0.03772668245177648</v>
+      </c>
+      <c r="H56">
+        <v>-0.1800863512815159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1281045903374237</v>
+        <v>0.09965656710982974</v>
       </c>
       <c r="C58">
-        <v>0.00851536686092013</v>
+        <v>0.03443807525360976</v>
       </c>
       <c r="D58">
-        <v>-0.02505838899255697</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03913460359651542</v>
+      </c>
+      <c r="E58">
+        <v>-0.1660249046209526</v>
+      </c>
+      <c r="F58">
+        <v>0.02017322231295442</v>
+      </c>
+      <c r="G58">
+        <v>0.01965496696996968</v>
+      </c>
+      <c r="H58">
+        <v>0.2593468198406427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1192358947721528</v>
+        <v>0.1361082559941074</v>
       </c>
       <c r="C59">
-        <v>0.07994668909084339</v>
+        <v>-0.08746168694514592</v>
       </c>
       <c r="D59">
-        <v>0.3549941405513847</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3633705226652391</v>
+      </c>
+      <c r="E59">
+        <v>-0.02085933283174467</v>
+      </c>
+      <c r="F59">
+        <v>-0.02200276887628337</v>
+      </c>
+      <c r="G59">
+        <v>0.02457783176977713</v>
+      </c>
+      <c r="H59">
+        <v>-0.0004172558484342336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2016509881784464</v>
+        <v>0.2323504904846807</v>
       </c>
       <c r="C60">
-        <v>0.1020647627463533</v>
+        <v>-0.06898323045367478</v>
       </c>
       <c r="D60">
-        <v>-0.01788818897290869</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04339678900122673</v>
+      </c>
+      <c r="E60">
+        <v>0.09402724145783864</v>
+      </c>
+      <c r="F60">
+        <v>-0.0674183117803927</v>
+      </c>
+      <c r="G60">
+        <v>-0.02680767548908726</v>
+      </c>
+      <c r="H60">
+        <v>0.1457240103004313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08045602903964319</v>
+        <v>0.08896673080252272</v>
       </c>
       <c r="C61">
-        <v>0.05203430411250062</v>
+        <v>-0.03722579471001677</v>
       </c>
       <c r="D61">
-        <v>-0.0438227150174431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04065941985326142</v>
+      </c>
+      <c r="E61">
+        <v>0.001704043164004881</v>
+      </c>
+      <c r="F61">
+        <v>-0.001542521611332264</v>
+      </c>
+      <c r="G61">
+        <v>0.0001935827839689279</v>
+      </c>
+      <c r="H61">
+        <v>-0.06129665053589668</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1283339055002939</v>
+        <v>0.1390003128492809</v>
       </c>
       <c r="C62">
-        <v>0.06435274191819737</v>
+        <v>-0.03935480480120005</v>
       </c>
       <c r="D62">
-        <v>-0.02891938745203454</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03264188560539164</v>
+      </c>
+      <c r="E62">
+        <v>0.0639370904632946</v>
+      </c>
+      <c r="F62">
+        <v>-0.01699731070866067</v>
+      </c>
+      <c r="G62">
+        <v>-0.004931343119340441</v>
+      </c>
+      <c r="H62">
+        <v>-0.2001980236719028</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05114681706839728</v>
+        <v>0.05093554813349115</v>
       </c>
       <c r="C63">
-        <v>0.02468895339001712</v>
+        <v>-0.01328538548897111</v>
       </c>
       <c r="D63">
-        <v>-0.02094221540288148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0199551605652145</v>
+      </c>
+      <c r="E63">
+        <v>-0.05105876313163452</v>
+      </c>
+      <c r="F63">
+        <v>0.01490464026906587</v>
+      </c>
+      <c r="G63">
+        <v>-0.02018736341195636</v>
+      </c>
+      <c r="H63">
+        <v>-0.05355294612128098</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1006366281198779</v>
+        <v>0.1064741019539038</v>
       </c>
       <c r="C64">
-        <v>0.03166634263346805</v>
+        <v>-0.01454338133787357</v>
       </c>
       <c r="D64">
-        <v>-0.0492232995239646</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03493480050038354</v>
+      </c>
+      <c r="E64">
+        <v>-0.03748170084343442</v>
+      </c>
+      <c r="F64">
+        <v>-0.03813717154189358</v>
+      </c>
+      <c r="G64">
+        <v>-0.04731769497532391</v>
+      </c>
+      <c r="H64">
+        <v>-0.04506187729204168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1232491540172247</v>
+        <v>0.1261881532089251</v>
       </c>
       <c r="C65">
-        <v>0.06160017832705272</v>
+        <v>-0.03922395749938367</v>
       </c>
       <c r="D65">
-        <v>0.01450099867055304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.007025770624302504</v>
+      </c>
+      <c r="E65">
+        <v>-0.01034687692119614</v>
+      </c>
+      <c r="F65">
+        <v>-0.05073781424878172</v>
+      </c>
+      <c r="G65">
+        <v>-0.06137124076107661</v>
+      </c>
+      <c r="H65">
+        <v>0.1535555090331845</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1447419900590808</v>
+        <v>0.1545641925253667</v>
       </c>
       <c r="C66">
-        <v>0.07733328138581548</v>
+        <v>-0.04787584524398346</v>
       </c>
       <c r="D66">
-        <v>-0.1112244893014436</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09507078537377278</v>
+      </c>
+      <c r="E66">
+        <v>0.03031960426947943</v>
+      </c>
+      <c r="F66">
+        <v>-0.01712863683179214</v>
+      </c>
+      <c r="G66">
+        <v>-0.04560225911782354</v>
+      </c>
+      <c r="H66">
+        <v>-0.1214863142130537</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07273880935086678</v>
+        <v>0.08434836451033151</v>
       </c>
       <c r="C67">
-        <v>0.01517352761822602</v>
+        <v>-0.005924419730049407</v>
       </c>
       <c r="D67">
-        <v>-0.02146755602849733</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02993002990447321</v>
+      </c>
+      <c r="E67">
+        <v>-0.0241433214111789</v>
+      </c>
+      <c r="F67">
+        <v>-0.01894619681304485</v>
+      </c>
+      <c r="G67">
+        <v>0.01479631614065963</v>
+      </c>
+      <c r="H67">
+        <v>-0.0339731648046523</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05764548964315615</v>
+        <v>0.05654047452625789</v>
       </c>
       <c r="C68">
-        <v>0.05110327303153527</v>
+        <v>-0.05935475490972178</v>
       </c>
       <c r="D68">
-        <v>0.2535545820502019</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2695889068739515</v>
+      </c>
+      <c r="E68">
+        <v>-0.0337445255762869</v>
+      </c>
+      <c r="F68">
+        <v>-0.01597315295045941</v>
+      </c>
+      <c r="G68">
+        <v>0.01699896456916056</v>
+      </c>
+      <c r="H68">
+        <v>-0.002773421255589931</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0512069442584282</v>
+        <v>0.05288665111868363</v>
       </c>
       <c r="C69">
-        <v>0.01786149945577009</v>
+        <v>-0.006705342212279595</v>
       </c>
       <c r="D69">
-        <v>-0.01951439098945367</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01513251299242631</v>
+      </c>
+      <c r="E69">
+        <v>-0.02286748565428681</v>
+      </c>
+      <c r="F69">
+        <v>0.00963957743655333</v>
+      </c>
+      <c r="G69">
+        <v>0.0212696706909137</v>
+      </c>
+      <c r="H69">
+        <v>-0.04749648296428496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.003789911420233676</v>
+        <v>0.02661337219553233</v>
       </c>
       <c r="C70">
-        <v>-0.005427225767872372</v>
+        <v>7.874377286074812e-05</v>
       </c>
       <c r="D70">
-        <v>-0.001970442814207956</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007167690836998694</v>
+      </c>
+      <c r="E70">
+        <v>0.02036969080984368</v>
+      </c>
+      <c r="F70">
+        <v>-0.01680339346721011</v>
+      </c>
+      <c r="G70">
+        <v>0.02746857747116483</v>
+      </c>
+      <c r="H70">
+        <v>0.02740444635584019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05789532969082729</v>
+        <v>0.05916498270352018</v>
       </c>
       <c r="C71">
-        <v>0.05088482384190223</v>
+        <v>-0.06287154394696581</v>
       </c>
       <c r="D71">
-        <v>0.2941411640538937</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2957765244474063</v>
+      </c>
+      <c r="E71">
+        <v>-0.03104520430139281</v>
+      </c>
+      <c r="F71">
+        <v>-0.04359303567964642</v>
+      </c>
+      <c r="G71">
+        <v>0.004101143988437769</v>
+      </c>
+      <c r="H71">
+        <v>-0.01123320519353477</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.142350326852357</v>
+        <v>0.1461392439164417</v>
       </c>
       <c r="C72">
-        <v>0.06591099683148058</v>
+        <v>-0.03597451886241486</v>
       </c>
       <c r="D72">
-        <v>0.006686476339865539</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007999258997588644</v>
+      </c>
+      <c r="E72">
+        <v>0.1074854882575086</v>
+      </c>
+      <c r="F72">
+        <v>0.1556689846009088</v>
+      </c>
+      <c r="G72">
+        <v>-0.1221920546525164</v>
+      </c>
+      <c r="H72">
+        <v>-0.01766335446742477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2754528954674131</v>
+        <v>0.2873682445029768</v>
       </c>
       <c r="C73">
-        <v>0.1087951538515108</v>
+        <v>-0.04539038978665735</v>
       </c>
       <c r="D73">
-        <v>-0.05711315625459977</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09913529216756163</v>
+      </c>
+      <c r="E73">
+        <v>0.2108035584338201</v>
+      </c>
+      <c r="F73">
+        <v>-0.1209763177063366</v>
+      </c>
+      <c r="G73">
+        <v>0.1322741218955537</v>
+      </c>
+      <c r="H73">
+        <v>0.4890018930015517</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.0785837397556244</v>
+        <v>0.09103142929664836</v>
       </c>
       <c r="C74">
-        <v>0.076806615927468</v>
+        <v>-0.06027206423191787</v>
       </c>
       <c r="D74">
-        <v>-0.01354612278126449</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02887195388422656</v>
+      </c>
+      <c r="E74">
+        <v>0.005654716563972369</v>
+      </c>
+      <c r="F74">
+        <v>-0.0003184053271143208</v>
+      </c>
+      <c r="G74">
+        <v>0.05797223547069718</v>
+      </c>
+      <c r="H74">
+        <v>-0.115660620797024</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.096009339728116</v>
+        <v>0.1010118128821933</v>
       </c>
       <c r="C75">
-        <v>0.05308962261451003</v>
+        <v>-0.02846543903344525</v>
       </c>
       <c r="D75">
-        <v>-0.01087948083692609</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01516125341128094</v>
+      </c>
+      <c r="E75">
+        <v>-0.009481172395169107</v>
+      </c>
+      <c r="F75">
+        <v>-0.02219768130762997</v>
+      </c>
+      <c r="G75">
+        <v>0.02698628867871972</v>
+      </c>
+      <c r="H75">
+        <v>-0.1151100936607958</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.129008182759423</v>
+        <v>0.1401054927097081</v>
       </c>
       <c r="C76">
-        <v>0.0831608841505305</v>
+        <v>-0.05743999519814673</v>
       </c>
       <c r="D76">
-        <v>-0.0530867933799289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04975415988483427</v>
+      </c>
+      <c r="E76">
+        <v>-0.02966018754468717</v>
+      </c>
+      <c r="F76">
+        <v>-0.04435444211364328</v>
+      </c>
+      <c r="G76">
+        <v>0.02248495441714376</v>
+      </c>
+      <c r="H76">
+        <v>-0.2027403385913506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1147816666971003</v>
+        <v>0.1084383274212774</v>
       </c>
       <c r="C77">
-        <v>0.01959080824383764</v>
+        <v>0.008568951420153997</v>
       </c>
       <c r="D77">
-        <v>-0.05526905856766414</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02168651375685353</v>
+      </c>
+      <c r="E77">
+        <v>-0.04636774381574407</v>
+      </c>
+      <c r="F77">
+        <v>-0.1056113989452554</v>
+      </c>
+      <c r="G77">
+        <v>-0.8908666706412054</v>
+      </c>
+      <c r="H77">
+        <v>0.06587456995151073</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1021179423465434</v>
+        <v>0.1420210517761756</v>
       </c>
       <c r="C78">
-        <v>0.04168702245285623</v>
+        <v>-0.03640233085317385</v>
       </c>
       <c r="D78">
-        <v>-0.08349971970015629</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08047921649812916</v>
+      </c>
+      <c r="E78">
+        <v>-0.06323281680950264</v>
+      </c>
+      <c r="F78">
+        <v>-0.0417133653033676</v>
+      </c>
+      <c r="G78">
+        <v>-0.0849777266203646</v>
+      </c>
+      <c r="H78">
+        <v>0.04770378695672681</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1462195353895578</v>
+        <v>0.1514809739747303</v>
       </c>
       <c r="C79">
-        <v>0.07638589183160868</v>
+        <v>-0.04469975295019611</v>
       </c>
       <c r="D79">
-        <v>-0.03023393439125146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02703976163421008</v>
+      </c>
+      <c r="E79">
+        <v>0.01598194297312809</v>
+      </c>
+      <c r="F79">
+        <v>-0.01981448179963543</v>
+      </c>
+      <c r="G79">
+        <v>0.04301689805430296</v>
+      </c>
+      <c r="H79">
+        <v>-0.1755644849021278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04492204752021165</v>
+        <v>0.04312348590878042</v>
       </c>
       <c r="C80">
-        <v>0.01721775738622594</v>
+        <v>-0.00839372851469573</v>
       </c>
       <c r="D80">
-        <v>-0.02701879977846697</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01646384152040831</v>
+      </c>
+      <c r="E80">
+        <v>0.002975156355613759</v>
+      </c>
+      <c r="F80">
+        <v>-0.001545873594846063</v>
+      </c>
+      <c r="G80">
+        <v>0.030480800831929</v>
+      </c>
+      <c r="H80">
+        <v>-0.02579595636572206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1159330119068586</v>
+        <v>0.1205901947885616</v>
       </c>
       <c r="C81">
-        <v>0.06358852846537653</v>
+        <v>-0.0385014469567225</v>
       </c>
       <c r="D81">
-        <v>-0.03526518846764903</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02305605017552362</v>
+      </c>
+      <c r="E81">
+        <v>-0.02025354208131497</v>
+      </c>
+      <c r="F81">
+        <v>-0.01614250767286308</v>
+      </c>
+      <c r="G81">
+        <v>0.06403667938907312</v>
+      </c>
+      <c r="H81">
+        <v>-0.1479459391676125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1295365772289323</v>
+        <v>0.1316603059384294</v>
       </c>
       <c r="C82">
-        <v>0.07821124224172739</v>
+        <v>-0.05079436223093788</v>
       </c>
       <c r="D82">
-        <v>-0.01565732741591286</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02558480989400125</v>
+      </c>
+      <c r="E82">
+        <v>0.006907330348248492</v>
+      </c>
+      <c r="F82">
+        <v>-0.05572240440969651</v>
+      </c>
+      <c r="G82">
+        <v>0.0576190413956221</v>
+      </c>
+      <c r="H82">
+        <v>-0.2185080123651227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07472867198579136</v>
+        <v>0.08632501743483714</v>
       </c>
       <c r="C83">
-        <v>-0.01325088762384765</v>
+        <v>0.02622043270745706</v>
       </c>
       <c r="D83">
-        <v>-0.02340281650611972</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03245703198164834</v>
+      </c>
+      <c r="E83">
+        <v>-0.02570953671069168</v>
+      </c>
+      <c r="F83">
+        <v>-0.05441679570116906</v>
+      </c>
+      <c r="G83">
+        <v>0.08391262843021745</v>
+      </c>
+      <c r="H83">
+        <v>0.06445704581416115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02841633038785281</v>
+        <v>0.03716001123530371</v>
       </c>
       <c r="C84">
-        <v>0.02847522560883835</v>
+        <v>-0.02301632196157758</v>
       </c>
       <c r="D84">
-        <v>-0.02833096803372205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03149383249135643</v>
+      </c>
+      <c r="E84">
+        <v>-0.03109055239068282</v>
+      </c>
+      <c r="F84">
+        <v>0.05476615830967028</v>
+      </c>
+      <c r="G84">
+        <v>0.06624229572963808</v>
+      </c>
+      <c r="H84">
+        <v>0.003434833403981085</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1196172456228095</v>
+        <v>0.121702751761082</v>
       </c>
       <c r="C85">
-        <v>0.05528402783350252</v>
+        <v>-0.02891972218079726</v>
       </c>
       <c r="D85">
-        <v>-0.02182763440197898</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0207018636094807</v>
+      </c>
+      <c r="E85">
+        <v>-0.01976781025744847</v>
+      </c>
+      <c r="F85">
+        <v>-0.0384713624802081</v>
+      </c>
+      <c r="G85">
+        <v>0.03399041242624854</v>
+      </c>
+      <c r="H85">
+        <v>-0.1577020574041582</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05083474724113062</v>
+        <v>0.05845965813080312</v>
       </c>
       <c r="C86">
-        <v>0.02790519583126629</v>
+        <v>-0.01844716136593124</v>
       </c>
       <c r="D86">
-        <v>-0.02940019817844852</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02773208920929943</v>
+      </c>
+      <c r="E86">
+        <v>-0.07369506181805684</v>
+      </c>
+      <c r="F86">
+        <v>-0.02292693288273053</v>
+      </c>
+      <c r="G86">
+        <v>0.02423714565033775</v>
+      </c>
+      <c r="H86">
+        <v>0.01806764408452966</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1179510373512011</v>
+        <v>0.1216231913983511</v>
       </c>
       <c r="C87">
-        <v>0.07157964416366175</v>
+        <v>-0.03828405418994226</v>
       </c>
       <c r="D87">
-        <v>-0.07339748376368967</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07132082890364951</v>
+      </c>
+      <c r="E87">
+        <v>-0.02388396507362919</v>
+      </c>
+      <c r="F87">
+        <v>-0.0009191686836976544</v>
+      </c>
+      <c r="G87">
+        <v>-0.1336655846289765</v>
+      </c>
+      <c r="H87">
+        <v>0.04118619461772832</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05259610839206751</v>
+        <v>0.05992653652460819</v>
       </c>
       <c r="C88">
-        <v>0.02929948362112747</v>
+        <v>-0.01970186552526159</v>
       </c>
       <c r="D88">
-        <v>-0.0208037949967919</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03288023079267877</v>
+      </c>
+      <c r="E88">
+        <v>-0.02235014882976871</v>
+      </c>
+      <c r="F88">
+        <v>-0.005556913246488024</v>
+      </c>
+      <c r="G88">
+        <v>-0.005655054967911052</v>
+      </c>
+      <c r="H88">
+        <v>-0.05381394979380115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.0855155862691378</v>
+        <v>0.09437761000060477</v>
       </c>
       <c r="C89">
-        <v>0.06922150473459621</v>
+        <v>-0.08181327550893122</v>
       </c>
       <c r="D89">
-        <v>0.321645116936616</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3468320959201754</v>
+      </c>
+      <c r="E89">
+        <v>-0.0721774671711032</v>
+      </c>
+      <c r="F89">
+        <v>-0.07403328849915559</v>
+      </c>
+      <c r="G89">
+        <v>0.02696120892674743</v>
+      </c>
+      <c r="H89">
+        <v>-0.001506055818107016</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07407949284477</v>
+        <v>0.07845784325829196</v>
       </c>
       <c r="C90">
-        <v>0.06058424509160356</v>
+        <v>-0.06997752516592297</v>
       </c>
       <c r="D90">
-        <v>0.318579572753067</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3074782453718214</v>
+      </c>
+      <c r="E90">
+        <v>-0.05892623586568636</v>
+      </c>
+      <c r="F90">
+        <v>-0.0009978625477567186</v>
+      </c>
+      <c r="G90">
+        <v>0.003020292866717458</v>
+      </c>
+      <c r="H90">
+        <v>-0.001424375486510664</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08651459564532232</v>
+        <v>0.09027028320659997</v>
       </c>
       <c r="C91">
-        <v>0.05634911381285225</v>
+        <v>-0.03402844372724755</v>
       </c>
       <c r="D91">
-        <v>-0.03029967709869864</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03169628263877051</v>
+      </c>
+      <c r="E91">
+        <v>-0.01282456375354826</v>
+      </c>
+      <c r="F91">
+        <v>-0.005994911345110812</v>
+      </c>
+      <c r="G91">
+        <v>0.05521908068276533</v>
+      </c>
+      <c r="H91">
+        <v>-0.08096029203809996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07433169623110018</v>
+        <v>0.07843195295890376</v>
       </c>
       <c r="C92">
-        <v>0.07450088188149834</v>
+        <v>-0.08551438774053134</v>
       </c>
       <c r="D92">
-        <v>0.3432174642101301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3468510475258281</v>
+      </c>
+      <c r="E92">
+        <v>-0.03955516465559104</v>
+      </c>
+      <c r="F92">
+        <v>-0.0464260382580034</v>
+      </c>
+      <c r="G92">
+        <v>-0.01515527746844533</v>
+      </c>
+      <c r="H92">
+        <v>-0.01680849814638219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06468997715691747</v>
+        <v>0.07472143581154221</v>
       </c>
       <c r="C93">
-        <v>0.06571209543654163</v>
+        <v>-0.08070154423735747</v>
       </c>
       <c r="D93">
-        <v>0.311327220815834</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3044606850357971</v>
+      </c>
+      <c r="E93">
+        <v>-0.03138812228313012</v>
+      </c>
+      <c r="F93">
+        <v>-0.03986419470767116</v>
+      </c>
+      <c r="G93">
+        <v>-0.01674341290667973</v>
+      </c>
+      <c r="H93">
+        <v>0.01268566218292521</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1322232550419779</v>
+        <v>0.1267544259141803</v>
       </c>
       <c r="C94">
-        <v>0.05438185323144858</v>
+        <v>-0.02011673441362539</v>
       </c>
       <c r="D94">
-        <v>-0.04793175698362972</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04937032501921586</v>
+      </c>
+      <c r="E94">
+        <v>0.007920215911790207</v>
+      </c>
+      <c r="F94">
+        <v>-0.0213370384555798</v>
+      </c>
+      <c r="G94">
+        <v>0.06189483866056348</v>
+      </c>
+      <c r="H94">
+        <v>-0.09984920852479991</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1195753024611311</v>
+        <v>0.1265937416578261</v>
       </c>
       <c r="C95">
-        <v>0.03148506445981503</v>
+        <v>-0.003593040483888223</v>
       </c>
       <c r="D95">
-        <v>-0.06626519817810023</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07176362776467764</v>
+      </c>
+      <c r="E95">
+        <v>-0.01478370032849179</v>
+      </c>
+      <c r="F95">
+        <v>-0.0299752941157871</v>
+      </c>
+      <c r="G95">
+        <v>-0.009589023882922413</v>
+      </c>
+      <c r="H95">
+        <v>0.05297335477922582</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2211893909545058</v>
+        <v>0.2092993380269631</v>
       </c>
       <c r="C97">
-        <v>0.0513843664581946</v>
+        <v>-0.0004165084720363707</v>
       </c>
       <c r="D97">
-        <v>0.1168243943532344</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08996812403575884</v>
+      </c>
+      <c r="E97">
+        <v>0.3143861414288351</v>
+      </c>
+      <c r="F97">
+        <v>0.8695551838347342</v>
+      </c>
+      <c r="G97">
+        <v>-0.07225283584537912</v>
+      </c>
+      <c r="H97">
+        <v>-0.01287283103974638</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2430278812342482</v>
+        <v>0.276092413967596</v>
       </c>
       <c r="C98">
-        <v>0.07228732059027648</v>
+        <v>-0.03241451360193191</v>
       </c>
       <c r="D98">
-        <v>-0.03799136125698747</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05893648201354587</v>
+      </c>
+      <c r="E98">
+        <v>0.1820434636359777</v>
+      </c>
+      <c r="F98">
+        <v>-0.09691663596091515</v>
+      </c>
+      <c r="G98">
+        <v>0.2285700993337114</v>
+      </c>
+      <c r="H98">
+        <v>0.2312552694978603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4472258868567371</v>
+        <v>0.2860870982873859</v>
       </c>
       <c r="C99">
-        <v>-0.8780903352625267</v>
+        <v>0.9328860853399651</v>
       </c>
       <c r="D99">
-        <v>0.053159170738604</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1363292730799767</v>
+      </c>
+      <c r="E99">
+        <v>-0.07214310746990443</v>
+      </c>
+      <c r="F99">
+        <v>-0.04870663954140016</v>
+      </c>
+      <c r="G99">
+        <v>0.02198246328055442</v>
+      </c>
+      <c r="H99">
+        <v>-0.06505165073537637</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04109625652744755</v>
+        <v>0.04894292860064722</v>
       </c>
       <c r="C101">
-        <v>0.03026459401861766</v>
+        <v>-0.02572678599908123</v>
       </c>
       <c r="D101">
-        <v>-0.007174831774616157</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.006480685846258161</v>
+      </c>
+      <c r="E101">
+        <v>-0.06707890477471823</v>
+      </c>
+      <c r="F101">
+        <v>-0.002080448110184164</v>
+      </c>
+      <c r="G101">
+        <v>0.01104606396374158</v>
+      </c>
+      <c r="H101">
+        <v>-0.07063068463225836</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
